--- a/excel-files/ASK-2024-Komuna-Gjinia-Mosha.xlsx
+++ b/excel-files/ASK-2024-Komuna-Gjinia-Mosha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Documents\2025\Innovation\sample-automatization\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFA3FC4-AE9A-4D6D-9BA8-556A0E5F35BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69902DE-B5D5-42A5-8E72-F5A35F401AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="census_00" sheetId="2" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX38" workbookViewId="0">
-      <selection activeCell="CJ50" sqref="CJ50"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="CJ1" sqref="CJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excel-files/ASK-2024-Komuna-Gjinia-Mosha.xlsx
+++ b/excel-files/ASK-2024-Komuna-Gjinia-Mosha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Documents\2025\Innovation\sample-automatization\excel-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\sample-automatization\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69902DE-B5D5-42A5-8E72-F5A35F401AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F78A96D-B672-4106-96AF-C01B98CF40C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="CJ1" sqref="CJ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excel-files/ASK-2024-Komuna-Gjinia-Mosha.xlsx
+++ b/excel-files/ASK-2024-Komuna-Gjinia-Mosha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\sample-automatization\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F78A96D-B672-4106-96AF-C01B98CF40C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB5763-9E2E-4C0A-A0E9-2AAD1A8AE63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="43">
   <si>
     <t>Meshkuj</t>
   </si>
@@ -29,261 +29,6 @@
   </si>
   <si>
     <t>Gjithsej</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
   </si>
   <si>
     <t>Deçan</t>
@@ -445,10 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CJ2" sqref="CJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,267 +510,267 @@
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="3">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="3">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="3">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="3">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="3">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="3">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="3">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="3">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="3">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="3">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="3">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="3">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="3">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="3">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="3">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="3">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="3">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="3">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="3">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="3">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="3">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="3">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="3">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="3">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="3">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="3">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="3">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="3">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="3">
         <v>32</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="3">
         <v>33</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="3">
         <v>34</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="3">
         <v>35</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="3">
         <v>36</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="3">
         <v>37</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="3">
         <v>38</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="3">
         <v>39</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="3">
         <v>40</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="3">
         <v>41</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="3">
         <v>42</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="3">
         <v>43</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="3">
         <v>44</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="3">
         <v>45</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="3">
         <v>46</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="3">
         <v>47</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="3">
         <v>48</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="3">
         <v>49</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="3">
         <v>50</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="3">
         <v>51</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="3">
         <v>52</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="3">
         <v>53</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="3">
         <v>54</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="3">
         <v>55</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="3">
         <v>56</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="3">
         <v>57</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="3">
         <v>58</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="3">
         <v>59</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="3">
         <v>60</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="3">
         <v>61</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BM1" s="3">
         <v>62</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BN1" s="3">
         <v>63</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BO1" s="3">
         <v>64</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BP1" s="3">
         <v>65</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BQ1" s="3">
         <v>66</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BR1" s="3">
         <v>67</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="3">
         <v>68</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="3">
         <v>69</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BU1" s="3">
         <v>70</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BV1" s="3">
         <v>71</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BW1" s="3">
         <v>72</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="3">
         <v>73</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BY1" s="3">
         <v>74</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BZ1" s="3">
         <v>75</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CA1" s="3">
         <v>76</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CB1" s="3">
         <v>77</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CC1" s="3">
         <v>78</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CD1" s="3">
         <v>79</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CE1" s="3">
         <v>80</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CF1" s="3">
         <v>81</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CG1" s="3">
         <v>82</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CH1" s="3">
         <v>83</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CI1" s="3">
         <v>84</v>
       </c>
-      <c r="CG1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CJ1" s="1">
+      <c r="CJ1" s="3">
         <v>85</v>
       </c>
       <c r="CK1" s="1" t="s">
@@ -1033,7 +779,7 @@
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1302,7 +1048,7 @@
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1571,7 +1317,7 @@
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1840,7 +1586,7 @@
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -2109,7 +1855,7 @@
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -2378,7 +2124,7 @@
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -2647,7 +2393,7 @@
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -2916,7 +2662,7 @@
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -3185,7 +2931,7 @@
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -3454,7 +3200,7 @@
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
@@ -3723,7 +3469,7 @@
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
@@ -3992,7 +3738,7 @@
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -4261,7 +4007,7 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -4530,7 +4276,7 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -4799,7 +4545,7 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -5068,7 +4814,7 @@
     </row>
     <row r="17" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
@@ -5337,7 +5083,7 @@
     </row>
     <row r="18" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
@@ -5606,7 +5352,7 @@
     </row>
     <row r="19" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
@@ -5875,7 +5621,7 @@
     </row>
     <row r="20" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
@@ -6144,7 +5890,7 @@
     </row>
     <row r="21" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
@@ -6413,7 +6159,7 @@
     </row>
     <row r="22" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
@@ -6682,7 +6428,7 @@
     </row>
     <row r="23" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
@@ -6951,7 +6697,7 @@
     </row>
     <row r="24" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
@@ -7220,7 +6966,7 @@
     </row>
     <row r="25" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
@@ -7489,7 +7235,7 @@
     </row>
     <row r="26" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -7758,7 +7504,7 @@
     </row>
     <row r="27" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -8027,7 +7773,7 @@
     </row>
     <row r="28" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -8296,7 +8042,7 @@
     </row>
     <row r="29" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
@@ -8565,7 +8311,7 @@
     </row>
     <row r="30" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
@@ -8834,7 +8580,7 @@
     </row>
     <row r="31" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -9103,7 +8849,7 @@
     </row>
     <row r="32" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
@@ -9372,7 +9118,7 @@
     </row>
     <row r="33" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
@@ -9641,7 +9387,7 @@
     </row>
     <row r="34" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
@@ -9910,7 +9656,7 @@
     </row>
     <row r="35" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
@@ -10179,7 +9925,7 @@
     </row>
     <row r="36" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>0</v>
@@ -10448,7 +10194,7 @@
     </row>
     <row r="37" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
@@ -10717,7 +10463,7 @@
     </row>
     <row r="38" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
@@ -10986,7 +10732,7 @@
     </row>
     <row r="39" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
@@ -11255,7 +11001,7 @@
     </row>
     <row r="40" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
@@ -11611,7 +11357,7 @@
     </row>
     <row r="41" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1</v>
@@ -11967,7 +11713,7 @@
     </row>
     <row r="42" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -12323,7 +12069,7 @@
     </row>
     <row r="43" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -12679,7 +12425,7 @@
     </row>
     <row r="44" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -13035,7 +12781,7 @@
     </row>
     <row r="45" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
@@ -13391,7 +13137,7 @@
     </row>
     <row r="46" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -13747,7 +13493,7 @@
     </row>
     <row r="47" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
@@ -14103,7 +13849,7 @@
     </row>
     <row r="48" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -14459,7 +14205,7 @@
     </row>
     <row r="49" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -14815,7 +14561,7 @@
     </row>
     <row r="50" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -15171,7 +14917,7 @@
     </row>
     <row r="51" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -15527,7 +15273,7 @@
     </row>
     <row r="52" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
@@ -15883,7 +15629,7 @@
     </row>
     <row r="53" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
@@ -16239,7 +15985,7 @@
     </row>
     <row r="54" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
@@ -16595,7 +16341,7 @@
     </row>
     <row r="55" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -16951,7 +16697,7 @@
     </row>
     <row r="56" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
@@ -17307,7 +17053,7 @@
     </row>
     <row r="57" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1</v>
@@ -17663,7 +17409,7 @@
     </row>
     <row r="58" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1</v>
@@ -18019,7 +17765,7 @@
     </row>
     <row r="59" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -18375,7 +18121,7 @@
     </row>
     <row r="60" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>1</v>
@@ -18731,7 +18477,7 @@
     </row>
     <row r="61" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -19087,7 +18833,7 @@
     </row>
     <row r="62" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -19443,7 +19189,7 @@
     </row>
     <row r="63" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -19799,7 +19545,7 @@
     </row>
     <row r="64" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1</v>
@@ -20155,7 +19901,7 @@
     </row>
     <row r="65" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
@@ -20511,7 +20257,7 @@
     </row>
     <row r="66" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -20867,7 +20613,7 @@
     </row>
     <row r="67" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -21223,7 +20969,7 @@
     </row>
     <row r="68" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1</v>
@@ -21579,7 +21325,7 @@
     </row>
     <row r="69" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
@@ -21935,7 +21681,7 @@
     </row>
     <row r="70" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
@@ -22291,7 +22037,7 @@
     </row>
     <row r="71" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1</v>
@@ -22647,7 +22393,7 @@
     </row>
     <row r="72" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
@@ -23003,7 +22749,7 @@
     </row>
     <row r="73" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -23359,7 +23105,7 @@
     </row>
     <row r="74" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -23715,7 +23461,7 @@
     </row>
     <row r="75" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1</v>
@@ -24071,7 +23817,7 @@
     </row>
     <row r="76" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1</v>
@@ -24427,7 +24173,7 @@
     </row>
     <row r="77" spans="1:176" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
